--- a/dataset/praproses_hasil_data_enso.xlsx
+++ b/dataset/praproses_hasil_data_enso.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Bahan Ajar Big Data\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2056F9D2-6843-49AA-A380-1F2972E1153C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4018561F-18B5-4FD3-A178-B7765D047CF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{CB7ECAB0-6653-41BF-AC32-8E9981A4E4A3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{CB7ECAB0-6653-41BF-AC32-8E9981A4E4A3}"/>
   </bookViews>
   <sheets>
     <sheet name="data enso" sheetId="1" r:id="rId1"/>
@@ -1286,12 +1286,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.109375" customWidth="1"/>
+    <col min="1" max="1" width="26.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1305,7 +1305,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>36892</v>
       </c>
@@ -1319,7 +1319,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>36923</v>
       </c>
@@ -1333,7 +1333,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>36951</v>
       </c>
@@ -1347,7 +1347,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>36982</v>
       </c>
@@ -1361,7 +1361,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>37012</v>
       </c>
@@ -1375,7 +1375,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>37043</v>
       </c>
@@ -1389,7 +1389,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>37073</v>
       </c>
@@ -1403,7 +1403,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>37104</v>
       </c>
@@ -1417,7 +1417,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>37135</v>
       </c>
@@ -1431,7 +1431,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>37165</v>
       </c>
@@ -1445,7 +1445,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>37196</v>
       </c>
@@ -1459,7 +1459,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>37226</v>
       </c>
@@ -1473,7 +1473,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>37257</v>
       </c>
@@ -1487,7 +1487,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>37288</v>
       </c>
@@ -1501,7 +1501,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>37316</v>
       </c>
@@ -1515,7 +1515,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>37347</v>
       </c>
@@ -1529,7 +1529,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>37377</v>
       </c>
@@ -1543,7 +1543,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>37408</v>
       </c>
@@ -1557,7 +1557,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>37438</v>
       </c>
@@ -1571,7 +1571,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>37469</v>
       </c>
@@ -1585,7 +1585,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>37500</v>
       </c>
@@ -1599,7 +1599,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>37530</v>
       </c>
@@ -1613,7 +1613,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>37561</v>
       </c>
@@ -1627,7 +1627,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>37591</v>
       </c>
@@ -1641,7 +1641,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>37622</v>
       </c>
@@ -1655,7 +1655,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>37653</v>
       </c>
@@ -1669,7 +1669,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>37681</v>
       </c>
@@ -1683,7 +1683,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>37712</v>
       </c>
@@ -1697,7 +1697,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>37742</v>
       </c>
@@ -1711,7 +1711,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>37773</v>
       </c>
@@ -1725,7 +1725,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>37803</v>
       </c>
@@ -1739,7 +1739,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>37834</v>
       </c>
@@ -1753,7 +1753,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>37865</v>
       </c>
@@ -1767,7 +1767,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>37895</v>
       </c>
@@ -1781,7 +1781,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>37926</v>
       </c>
@@ -1795,7 +1795,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>37956</v>
       </c>
@@ -1809,7 +1809,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>37987</v>
       </c>
@@ -1823,7 +1823,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
         <v>38018</v>
       </c>
@@ -1837,7 +1837,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <v>38047</v>
       </c>
@@ -1851,7 +1851,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <v>38078</v>
       </c>
@@ -1865,7 +1865,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
         <v>38108</v>
       </c>
@@ -1879,7 +1879,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
         <v>38139</v>
       </c>
@@ -1893,7 +1893,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
         <v>38169</v>
       </c>
@@ -1907,7 +1907,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
         <v>38200</v>
       </c>
@@ -1921,7 +1921,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
         <v>38231</v>
       </c>
@@ -1935,7 +1935,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
         <v>38261</v>
       </c>
@@ -1949,7 +1949,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
         <v>38292</v>
       </c>
@@ -1963,7 +1963,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
         <v>38322</v>
       </c>
@@ -1977,7 +1977,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>38353</v>
       </c>
@@ -1991,7 +1991,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
         <v>38384</v>
       </c>
@@ -2005,7 +2005,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
         <v>38412</v>
       </c>
@@ -2019,7 +2019,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
         <v>38443</v>
       </c>
@@ -2033,7 +2033,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
         <v>38473</v>
       </c>
@@ -2047,7 +2047,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
         <v>38504</v>
       </c>
@@ -2061,7 +2061,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="4">
         <v>38534</v>
       </c>
@@ -2075,7 +2075,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="4">
         <v>38565</v>
       </c>
@@ -2089,7 +2089,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
         <v>38596</v>
       </c>
@@ -2103,7 +2103,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
         <v>38626</v>
       </c>
@@ -2117,7 +2117,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="4">
         <v>38657</v>
       </c>
@@ -2131,7 +2131,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="4">
         <v>38687</v>
       </c>
@@ -2145,7 +2145,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>38718</v>
       </c>
@@ -2159,7 +2159,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="4">
         <v>38749</v>
       </c>
@@ -2173,7 +2173,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="4">
         <v>38777</v>
       </c>
@@ -2187,7 +2187,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="4">
         <v>38808</v>
       </c>
@@ -2201,7 +2201,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="4">
         <v>38838</v>
       </c>
@@ -2215,7 +2215,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="4">
         <v>38869</v>
       </c>
@@ -2229,7 +2229,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="4">
         <v>38899</v>
       </c>
@@ -2243,7 +2243,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="4">
         <v>38930</v>
       </c>
@@ -2257,7 +2257,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="4">
         <v>38961</v>
       </c>
@@ -2271,7 +2271,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="4">
         <v>38991</v>
       </c>
@@ -2285,7 +2285,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="4">
         <v>39022</v>
       </c>
@@ -2299,7 +2299,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="4">
         <v>39052</v>
       </c>
@@ -2313,7 +2313,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>39083</v>
       </c>
@@ -2327,7 +2327,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="4">
         <v>39114</v>
       </c>
@@ -2341,7 +2341,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="4">
         <v>39142</v>
       </c>
@@ -2355,7 +2355,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="4">
         <v>39173</v>
       </c>
@@ -2369,7 +2369,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="4">
         <v>39203</v>
       </c>
@@ -2383,7 +2383,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="4">
         <v>39234</v>
       </c>
@@ -2397,7 +2397,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="4">
         <v>39264</v>
       </c>
@@ -2411,7 +2411,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="4">
         <v>39295</v>
       </c>
@@ -2425,7 +2425,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="4">
         <v>39326</v>
       </c>
@@ -2439,7 +2439,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="4">
         <v>39356</v>
       </c>
@@ -2453,7 +2453,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="4">
         <v>39387</v>
       </c>
@@ -2467,7 +2467,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="4">
         <v>39417</v>
       </c>
@@ -2481,7 +2481,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
         <v>39448</v>
       </c>
@@ -2495,7 +2495,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="4">
         <v>39479</v>
       </c>
@@ -2509,7 +2509,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="4">
         <v>39508</v>
       </c>
@@ -2523,7 +2523,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="4">
         <v>39539</v>
       </c>
@@ -2537,7 +2537,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="4">
         <v>39569</v>
       </c>
@@ -2551,7 +2551,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="4">
         <v>39600</v>
       </c>
@@ -2565,7 +2565,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="4">
         <v>39630</v>
       </c>
@@ -2579,7 +2579,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="4">
         <v>39661</v>
       </c>
@@ -2593,7 +2593,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="4">
         <v>39692</v>
       </c>
@@ -2607,7 +2607,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="4">
         <v>39722</v>
       </c>
@@ -2621,7 +2621,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="4">
         <v>39753</v>
       </c>
@@ -2635,7 +2635,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="4">
         <v>39783</v>
       </c>
@@ -2649,7 +2649,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
         <v>39814</v>
       </c>
@@ -2663,7 +2663,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="4">
         <v>39845</v>
       </c>
@@ -2677,7 +2677,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="4">
         <v>39873</v>
       </c>
@@ -2691,7 +2691,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="4">
         <v>39904</v>
       </c>
@@ -2705,7 +2705,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="4">
         <v>39934</v>
       </c>
@@ -2719,7 +2719,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="4">
         <v>39965</v>
       </c>
@@ -2733,7 +2733,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="4">
         <v>39995</v>
       </c>
@@ -2747,7 +2747,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="4">
         <v>40026</v>
       </c>
@@ -2761,7 +2761,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="4">
         <v>40057</v>
       </c>
@@ -2775,7 +2775,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="4">
         <v>40087</v>
       </c>
@@ -2789,7 +2789,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="4">
         <v>40118</v>
       </c>
@@ -2803,7 +2803,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="4">
         <v>40148</v>
       </c>
@@ -2817,7 +2817,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
         <v>40179</v>
       </c>
@@ -2831,7 +2831,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="4">
         <v>40210</v>
       </c>
@@ -2845,7 +2845,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="4">
         <v>40238</v>
       </c>
@@ -2859,7 +2859,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="4">
         <v>40269</v>
       </c>
@@ -2873,7 +2873,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="4">
         <v>40299</v>
       </c>
@@ -2887,7 +2887,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="4">
         <v>40330</v>
       </c>
@@ -2901,7 +2901,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="4">
         <v>40360</v>
       </c>
@@ -2915,7 +2915,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="4">
         <v>40391</v>
       </c>
@@ -2929,7 +2929,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="4">
         <v>40422</v>
       </c>
@@ -2943,7 +2943,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="4">
         <v>40452</v>
       </c>
@@ -2957,7 +2957,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="4">
         <v>40483</v>
       </c>
@@ -2971,7 +2971,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="4">
         <v>40513</v>
       </c>
@@ -2985,7 +2985,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="2">
         <v>40544</v>
       </c>
@@ -2999,7 +2999,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="4">
         <v>40575</v>
       </c>
@@ -3013,7 +3013,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="4">
         <v>40603</v>
       </c>
@@ -3027,7 +3027,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="4">
         <v>40634</v>
       </c>
@@ -3041,7 +3041,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="4">
         <v>40664</v>
       </c>
@@ -3055,7 +3055,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="4">
         <v>40695</v>
       </c>
@@ -3069,7 +3069,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="4">
         <v>40725</v>
       </c>
@@ -3083,7 +3083,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="4">
         <v>40756</v>
       </c>
@@ -3097,7 +3097,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="4">
         <v>40787</v>
       </c>
@@ -3111,7 +3111,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="4">
         <v>40817</v>
       </c>
@@ -3125,7 +3125,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="4">
         <v>40848</v>
       </c>
@@ -3139,7 +3139,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="4">
         <v>40878</v>
       </c>
@@ -3153,7 +3153,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="2">
         <v>40909</v>
       </c>
@@ -3167,7 +3167,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="4">
         <v>40940</v>
       </c>
@@ -3181,7 +3181,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="4">
         <v>40969</v>
       </c>
@@ -3195,7 +3195,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="4">
         <v>41000</v>
       </c>
@@ -3209,7 +3209,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="4">
         <v>41030</v>
       </c>
@@ -3223,7 +3223,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="4">
         <v>41061</v>
       </c>
@@ -3237,7 +3237,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="4">
         <v>41091</v>
       </c>
@@ -3251,7 +3251,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="4">
         <v>41122</v>
       </c>
@@ -3265,7 +3265,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="4">
         <v>41153</v>
       </c>
@@ -3279,7 +3279,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="4">
         <v>41183</v>
       </c>
@@ -3293,7 +3293,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="4">
         <v>41214</v>
       </c>
@@ -3307,7 +3307,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="4">
         <v>41244</v>
       </c>
@@ -3321,7 +3321,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="2">
         <v>41275</v>
       </c>
@@ -3335,7 +3335,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="4">
         <v>41306</v>
       </c>
@@ -3349,7 +3349,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="4">
         <v>41334</v>
       </c>
@@ -3363,7 +3363,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="4">
         <v>41365</v>
       </c>
@@ -3377,7 +3377,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="4">
         <v>41395</v>
       </c>
@@ -3391,7 +3391,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="4">
         <v>41426</v>
       </c>
@@ -3405,7 +3405,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="4">
         <v>41456</v>
       </c>
@@ -3419,7 +3419,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="4">
         <v>41487</v>
       </c>
@@ -3433,7 +3433,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="4">
         <v>41518</v>
       </c>
@@ -3447,7 +3447,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="4">
         <v>41548</v>
       </c>
@@ -3461,7 +3461,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="4">
         <v>41579</v>
       </c>
@@ -3475,7 +3475,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="4">
         <v>41609</v>
       </c>
@@ -3489,7 +3489,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="2">
         <v>41640</v>
       </c>
@@ -3503,7 +3503,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="4">
         <v>41671</v>
       </c>
@@ -3517,7 +3517,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="4">
         <v>41699</v>
       </c>
@@ -3531,7 +3531,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" s="4">
         <v>41730</v>
       </c>
@@ -3545,7 +3545,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="4">
         <v>41760</v>
       </c>
@@ -3559,7 +3559,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" s="4">
         <v>41791</v>
       </c>
@@ -3573,7 +3573,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" s="4">
         <v>41821</v>
       </c>
@@ -3587,7 +3587,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" s="4">
         <v>41852</v>
       </c>
@@ -3601,7 +3601,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" s="4">
         <v>41883</v>
       </c>
@@ -3615,7 +3615,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" s="4">
         <v>41913</v>
       </c>
@@ -3629,7 +3629,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" s="4">
         <v>41944</v>
       </c>
@@ -3643,7 +3643,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" s="4">
         <v>41974</v>
       </c>
@@ -3657,7 +3657,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" s="2">
         <v>42005</v>
       </c>
@@ -3671,7 +3671,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="4">
         <v>42036</v>
       </c>
@@ -3685,7 +3685,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="4">
         <v>42064</v>
       </c>
@@ -3699,7 +3699,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="4">
         <v>42095</v>
       </c>
@@ -3713,7 +3713,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" s="4">
         <v>42125</v>
       </c>
@@ -3727,7 +3727,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" s="4">
         <v>42156</v>
       </c>
@@ -3741,7 +3741,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" s="4">
         <v>42186</v>
       </c>
@@ -3755,7 +3755,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" s="4">
         <v>42217</v>
       </c>
@@ -3769,7 +3769,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="4">
         <v>42248</v>
       </c>
@@ -3783,7 +3783,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" s="4">
         <v>42278</v>
       </c>
@@ -3797,7 +3797,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" s="4">
         <v>42309</v>
       </c>
@@ -3811,7 +3811,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" s="4">
         <v>42339</v>
       </c>
@@ -3825,7 +3825,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" s="2">
         <v>42370</v>
       </c>
@@ -3839,7 +3839,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" s="4">
         <v>42401</v>
       </c>
@@ -3853,7 +3853,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" s="4">
         <v>42430</v>
       </c>
@@ -3867,7 +3867,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" s="4">
         <v>42461</v>
       </c>
@@ -3881,7 +3881,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" s="4">
         <v>42491</v>
       </c>
@@ -3895,7 +3895,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" s="4">
         <v>42522</v>
       </c>
@@ -3909,7 +3909,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" s="4">
         <v>42552</v>
       </c>
@@ -3923,7 +3923,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" s="4">
         <v>42583</v>
       </c>
@@ -3937,7 +3937,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" s="4">
         <v>42614</v>
       </c>
@@ -3951,7 +3951,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" s="4">
         <v>42644</v>
       </c>
@@ -3965,7 +3965,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" s="4">
         <v>42675</v>
       </c>
@@ -3979,7 +3979,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" s="4">
         <v>42705</v>
       </c>
@@ -3993,7 +3993,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" s="2">
         <v>42736</v>
       </c>
@@ -4007,7 +4007,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" s="4">
         <v>42767</v>
       </c>
@@ -4021,7 +4021,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" s="4">
         <v>42795</v>
       </c>
@@ -4035,7 +4035,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" s="4">
         <v>42826</v>
       </c>
@@ -4049,7 +4049,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" s="4">
         <v>42856</v>
       </c>
@@ -4063,7 +4063,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" s="4">
         <v>42887</v>
       </c>
@@ -4077,7 +4077,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" s="4">
         <v>42917</v>
       </c>
@@ -4091,7 +4091,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" s="4">
         <v>42948</v>
       </c>
@@ -4105,7 +4105,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" s="4">
         <v>42979</v>
       </c>
@@ -4119,7 +4119,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" s="4">
         <v>43009</v>
       </c>
@@ -4133,7 +4133,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" s="4">
         <v>43040</v>
       </c>
@@ -4147,7 +4147,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" s="4">
         <v>43070</v>
       </c>
@@ -4161,7 +4161,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" s="2">
         <v>43101</v>
       </c>
@@ -4175,7 +4175,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" s="4">
         <v>43132</v>
       </c>
@@ -4189,7 +4189,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" s="4">
         <v>43160</v>
       </c>
@@ -4203,7 +4203,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" s="4">
         <v>43191</v>
       </c>
@@ -4217,7 +4217,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" s="4">
         <v>43221</v>
       </c>
@@ -4231,7 +4231,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" s="4">
         <v>43252</v>
       </c>
@@ -4245,7 +4245,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" s="4">
         <v>43282</v>
       </c>
@@ -4259,7 +4259,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" s="4">
         <v>43313</v>
       </c>
@@ -4273,7 +4273,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" s="4">
         <v>43344</v>
       </c>
@@ -4287,7 +4287,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" s="4">
         <v>43374</v>
       </c>
@@ -4301,7 +4301,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" s="4">
         <v>43405</v>
       </c>
@@ -4315,7 +4315,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" s="4">
         <v>43435</v>
       </c>
@@ -4329,7 +4329,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" s="2">
         <v>43466</v>
       </c>
@@ -4343,7 +4343,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" s="4">
         <v>43497</v>
       </c>
@@ -4357,7 +4357,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" s="4">
         <v>43525</v>
       </c>
@@ -4371,7 +4371,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" s="4">
         <v>43556</v>
       </c>
@@ -4385,7 +4385,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" s="4">
         <v>43586</v>
       </c>
@@ -4399,7 +4399,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" s="4">
         <v>43617</v>
       </c>
@@ -4413,7 +4413,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" s="4">
         <v>43647</v>
       </c>
@@ -4427,7 +4427,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" s="4">
         <v>43678</v>
       </c>
@@ -4441,7 +4441,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" s="4">
         <v>43709</v>
       </c>
@@ -4455,7 +4455,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" s="4">
         <v>43739</v>
       </c>
@@ -4469,7 +4469,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" s="4">
         <v>43770</v>
       </c>
@@ -4483,7 +4483,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" s="4">
         <v>43800</v>
       </c>
@@ -4497,7 +4497,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" s="2">
         <v>43831</v>
       </c>
@@ -4511,7 +4511,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" s="4">
         <v>43862</v>
       </c>
@@ -4525,7 +4525,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" s="4">
         <v>43891</v>
       </c>
@@ -4539,7 +4539,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" s="4">
         <v>43922</v>
       </c>
@@ -4553,7 +4553,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" s="4">
         <v>43952</v>
       </c>
@@ -4567,7 +4567,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" s="4">
         <v>43983</v>
       </c>
@@ -4581,7 +4581,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" s="4">
         <v>44013</v>
       </c>
@@ -4595,7 +4595,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" s="4">
         <v>44044</v>
       </c>
@@ -4609,7 +4609,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238" s="4">
         <v>44075</v>
       </c>
@@ -4623,7 +4623,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239" s="4">
         <v>44105</v>
       </c>
@@ -4637,7 +4637,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240" s="4">
         <v>44136</v>
       </c>
@@ -4651,7 +4651,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241" s="4">
         <v>44166</v>
       </c>
